--- a/light/graph/BarGraphLight.xlsx
+++ b/light/graph/BarGraphLight.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takuma\Desktop\Reserch\ver_19-7-5\lighting\praph\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takuma\Desktop\Research\light\graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E4C366-3000-4E9F-B47C-CDC1AC3200C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81645228-102A-4AE8-9128-5912283D586D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F003384B-2BC2-46DB-A2C4-510D88C4C161}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{F003384B-2BC2-46DB-A2C4-510D88C4C161}"/>
   </bookViews>
   <sheets>
     <sheet name="lightAvgMonth" sheetId="1" r:id="rId1"/>
-    <sheet name="lightAvgWeek" sheetId="2" r:id="rId2"/>
-    <sheet name="LeftLightforDayGroupByWeek" sheetId="3" r:id="rId3"/>
-    <sheet name="LeftLightforDayGrooupByMonth" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="lightAvgWeek" sheetId="2" r:id="rId3"/>
+    <sheet name="LeftLightforDayGroupByWeek" sheetId="3" r:id="rId4"/>
+    <sheet name="LeftLightforDayGrooupByMonth" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
   <si>
     <t>light1</t>
   </si>
@@ -79,6 +80,38 @@
   </si>
   <si>
     <t>Sat</t>
+  </si>
+  <si>
+    <t>light a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light b</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light c</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light d</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light e</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light f</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light g</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>light h</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -205,7 +238,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -307,7 +340,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -409,7 +442,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -511,7 +544,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -613,7 +646,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -715,7 +748,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -817,7 +850,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -921,7 +954,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1101,6 +1134,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>月当たり平均点灯率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1270,28 +1363,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1365,28 +1458,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1460,28 +1553,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1555,28 +1648,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1650,28 +1743,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1745,28 +1838,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1842,28 +1935,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1939,28 +2032,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2036,28 +2129,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2186,6 +2279,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>月当たり平均点灯率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2328,6 +2481,345 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$1:$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>light a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>light b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>light c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>light d</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>light e</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>light f</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>light g</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>light h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$H$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.70670200034193875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73984156835926373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71294238331338688</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66011283980167546</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73687809882031119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74662335441955885</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68932011170000573</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65566763549324669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9A29-4C59-8C7E-93F4805EF195}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="421429040"/>
+        <c:axId val="421425432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="421429040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421425432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="421425432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>全期間平均点灯率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="421429040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>lightAvgWeek!$A$2</c:f>
@@ -2355,28 +2847,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2450,28 +2942,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2545,28 +3037,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2640,28 +3132,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2735,28 +3227,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2830,28 +3322,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2927,28 +3419,28 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>light1</c:v>
+                  <c:v>light a</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>light2</c:v>
+                  <c:v>light b</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>light3</c:v>
+                  <c:v>light c</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>light4</c:v>
+                  <c:v>light d</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>light5</c:v>
+                  <c:v>light e</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>light6</c:v>
+                  <c:v>light f</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>light7</c:v>
+                  <c:v>light g</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>light8</c:v>
+                  <c:v>light h</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3078,947 +3570,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>日当り平均点灯率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
             <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="977601208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lightAvgWeek!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>light1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Sun</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fri</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lightAvgWeek!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.5712301587301587</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69503968253968251</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.72599206349206347</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7503968253968254</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74632278863590573</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7243966741026161</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.73452380952380958</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C704-4116-B81B-FBF67D330EFB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lightAvgWeek!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>light2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Sun</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fri</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lightAvgWeek!$C$2:$C$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.64583333333333337</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72936507936507933</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.73333333333333328</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.71984126984126984</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.79609107394720935</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.75238288379639018</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.80317460317460321</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C704-4116-B81B-FBF67D330EFB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lightAvgWeek!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>light3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Sun</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fri</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lightAvgWeek!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.47837301587301589</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70912698412698416</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.72142857142857142</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.72539682539682537</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.78400161192826923</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.77306834313526673</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.80158730158730163</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C704-4116-B81B-FBF67D330EFB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lightAvgWeek!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>light4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Sun</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fri</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lightAvgWeek!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.48809523809523808</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.63472222222222219</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68849206349206349</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6785714285714286</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6981664315937941</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71608193064287162</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71845238095238095</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C704-4116-B81B-FBF67D330EFB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lightAvgWeek!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>light5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Sun</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fri</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lightAvgWeek!$F$2:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.63472222222222219</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68869047619047619</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.74206349206349209</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.73055555555555551</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.80374773322587145</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.80429933076455085</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75654761904761902</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C704-4116-B81B-FBF67D330EFB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lightAvgWeek!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>light6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Sun</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fri</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lightAvgWeek!$G$2:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.63908730158730154</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.72876984126984123</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.75496031746031744</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.731547619047619</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.78158371952448114</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79578178868383698</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79623015873015868</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C704-4116-B81B-FBF67D330EFB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lightAvgWeek!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>light7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Sun</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fri</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lightAvgWeek!$H$2:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.54265873015873012</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66646825396825393</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.71567460317460319</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70892857142857146</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.74571831553495871</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73697018860271746</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.71071428571428574</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-C704-4116-B81B-FBF67D330EFB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>lightAvgWeek!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>light8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>Sun</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mon</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Tue</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Wed</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thu</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Fri</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Sat</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>lightAvgWeek!$I$2:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.46726190476190477</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65119047619047621</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.72559523809523807</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66130952380952379</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69393511988716505</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71709592374771847</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.67519841269841274</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-44D8-4428-A937-832BAC611770}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="977601208"/>
-        <c:axId val="977610392"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="977601208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="977610392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="977610392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4138,6 +3749,1007 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lightAvgWeek!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>light a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lightAvgWeek!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.5712301587301587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69503968253968251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72599206349206347</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7503968253968254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74632278863590573</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7243966741026161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.73452380952380958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C704-4116-B81B-FBF67D330EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lightAvgWeek!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>light b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lightAvgWeek!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.64583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72936507936507933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71984126984126984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79609107394720935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75238288379639018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80317460317460321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C704-4116-B81B-FBF67D330EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lightAvgWeek!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>light c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lightAvgWeek!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.47837301587301589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.70912698412698416</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72539682539682537</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78400161192826923</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77306834313526673</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.80158730158730163</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C704-4116-B81B-FBF67D330EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lightAvgWeek!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>light d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lightAvgWeek!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.48809523809523808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63472222222222219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68849206349206349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6785714285714286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6981664315937941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71608193064287162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71845238095238095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C704-4116-B81B-FBF67D330EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lightAvgWeek!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>light e</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lightAvgWeek!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.63472222222222219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68869047619047619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74206349206349209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73055555555555551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.80374773322587145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80429933076455085</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75654761904761902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C704-4116-B81B-FBF67D330EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lightAvgWeek!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>light f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lightAvgWeek!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.63908730158730154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72876984126984123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75496031746031744</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.731547619047619</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78158371952448114</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79578178868383698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79623015873015868</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C704-4116-B81B-FBF67D330EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lightAvgWeek!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>light g</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lightAvgWeek!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.54265873015873012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66646825396825393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71567460317460319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.70892857142857146</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74571831553495871</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73697018860271746</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71071428571428574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C704-4116-B81B-FBF67D330EFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>lightAvgWeek!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>light h</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>lightAvgWeek!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sun</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Tue</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thu</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Fri</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>lightAvgWeek!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.46726190476190477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65119047619047621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72559523809523807</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66130952380952379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69393511988716505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71709592374771847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67519841269841274</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-44D8-4428-A937-832BAC611770}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="977601208"/>
+        <c:axId val="977610392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="977601208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977610392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="977610392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>日当たり平均点灯率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[%]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="977601208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -5071,7 +5683,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -6116,7 +6728,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -7482,6 +8094,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -10501,6 +11153,509 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11013,10 +12168,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11043,16 +12198,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>242887</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11084,16 +12239,57 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1CDA4E4-2451-40E7-B2F9-687C326F474B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>681037</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11121,15 +12317,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>614362</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11157,7 +12353,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11198,7 +12394,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11574,37 +12770,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA6B2ED5-C055-41D2-A0FB-957CDA00FB51}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -11876,241 +13072,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE58F905-4CF8-42A6-AE2D-003AB0BEE625}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D52630-2A7D-456E-A34F-5A7817AC4808}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0.70670200034193875</v>
       </c>
       <c r="B2">
-        <v>0.5712301587301587</v>
+        <v>0.73984156835926373</v>
       </c>
       <c r="C2">
-        <v>0.64583333333333337</v>
+        <v>0.71294238331338688</v>
       </c>
       <c r="D2">
-        <v>0.47837301587301589</v>
+        <v>0.66011283980167546</v>
       </c>
       <c r="E2">
-        <v>0.48809523809523808</v>
+        <v>0.73687809882031119</v>
       </c>
       <c r="F2">
-        <v>0.63472222222222219</v>
+        <v>0.74662335441955885</v>
       </c>
       <c r="G2">
-        <v>0.63908730158730154</v>
+        <v>0.68932011170000573</v>
       </c>
       <c r="H2">
-        <v>0.54265873015873012</v>
-      </c>
-      <c r="I2">
-        <v>0.46726190476190477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0.69503968253968251</v>
-      </c>
-      <c r="C3">
-        <v>0.72936507936507933</v>
-      </c>
-      <c r="D3">
-        <v>0.70912698412698416</v>
-      </c>
-      <c r="E3">
-        <v>0.63472222222222219</v>
-      </c>
-      <c r="F3">
-        <v>0.68869047619047619</v>
-      </c>
-      <c r="G3">
-        <v>0.72876984126984123</v>
-      </c>
-      <c r="H3">
-        <v>0.66646825396825393</v>
-      </c>
-      <c r="I3">
-        <v>0.65119047619047621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>0.72599206349206347</v>
-      </c>
-      <c r="C4">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="D4">
-        <v>0.72142857142857142</v>
-      </c>
-      <c r="E4">
-        <v>0.68849206349206349</v>
-      </c>
-      <c r="F4">
-        <v>0.74206349206349209</v>
-      </c>
-      <c r="G4">
-        <v>0.75496031746031744</v>
-      </c>
-      <c r="H4">
-        <v>0.71567460317460319</v>
-      </c>
-      <c r="I4">
-        <v>0.72559523809523807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0.7503968253968254</v>
-      </c>
-      <c r="C5">
-        <v>0.71984126984126984</v>
-      </c>
-      <c r="D5">
-        <v>0.72539682539682537</v>
-      </c>
-      <c r="E5">
-        <v>0.6785714285714286</v>
-      </c>
-      <c r="F5">
-        <v>0.73055555555555551</v>
-      </c>
-      <c r="G5">
-        <v>0.731547619047619</v>
-      </c>
-      <c r="H5">
-        <v>0.70892857142857146</v>
-      </c>
-      <c r="I5">
-        <v>0.66130952380952379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.74632278863590573</v>
-      </c>
-      <c r="C6">
-        <v>0.79609107394720935</v>
-      </c>
-      <c r="D6">
-        <v>0.78400161192826923</v>
-      </c>
-      <c r="E6">
-        <v>0.6981664315937941</v>
-      </c>
-      <c r="F6">
-        <v>0.80374773322587145</v>
-      </c>
-      <c r="G6">
-        <v>0.78158371952448114</v>
-      </c>
-      <c r="H6">
-        <v>0.74571831553495871</v>
-      </c>
-      <c r="I6">
-        <v>0.69393511988716505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0.7243966741026161</v>
-      </c>
-      <c r="C7">
-        <v>0.75238288379639018</v>
-      </c>
-      <c r="D7">
-        <v>0.77306834313526673</v>
-      </c>
-      <c r="E7">
-        <v>0.71608193064287162</v>
-      </c>
-      <c r="F7">
-        <v>0.80429933076455085</v>
-      </c>
-      <c r="G7">
-        <v>0.79578178868383698</v>
-      </c>
-      <c r="H7">
-        <v>0.73697018860271746</v>
-      </c>
-      <c r="I7">
-        <v>0.71709592374771847</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0.73452380952380958</v>
-      </c>
-      <c r="C8">
-        <v>0.80317460317460321</v>
-      </c>
-      <c r="D8">
-        <v>0.80158730158730163</v>
-      </c>
-      <c r="E8">
-        <v>0.71845238095238095</v>
-      </c>
-      <c r="F8">
-        <v>0.75654761904761902</v>
-      </c>
-      <c r="G8">
-        <v>0.79623015873015868</v>
-      </c>
-      <c r="H8">
-        <v>0.71071428571428574</v>
-      </c>
-      <c r="I8">
-        <v>0.67519841269841274</v>
+        <v>0.65566763549324669</v>
       </c>
     </row>
   </sheetData>
@@ -12121,40 +13141,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C0F044-93E0-4737-9DC1-3A1BC95E8B61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE58F905-4CF8-42A6-AE2D-003AB0BEE625}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -12162,28 +13182,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.22857142857142856</v>
+        <v>0.5712301587301587</v>
       </c>
       <c r="C2">
-        <v>0.25714285714285712</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="D2">
-        <v>0.22857142857142856</v>
+        <v>0.47837301587301589</v>
       </c>
       <c r="E2">
-        <v>0.22857142857142856</v>
+        <v>0.48809523809523808</v>
       </c>
       <c r="F2">
-        <v>0.22857142857142856</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="G2">
-        <v>0.22857142857142856</v>
+        <v>0.63908730158730154</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0.54265873015873012</v>
       </c>
       <c r="I2">
-        <v>0.14285714285714285</v>
+        <v>0.46726190476190477</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -12191,28 +13211,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2857142857142857</v>
+        <v>0.69503968253968251</v>
       </c>
       <c r="C3">
-        <v>0.31428571428571428</v>
+        <v>0.72936507936507933</v>
       </c>
       <c r="D3">
-        <v>0.22857142857142856</v>
+        <v>0.70912698412698416</v>
       </c>
       <c r="E3">
-        <v>0.14285714285714285</v>
+        <v>0.63472222222222219</v>
       </c>
       <c r="F3">
-        <v>0.34285714285714286</v>
+        <v>0.68869047619047619</v>
       </c>
       <c r="G3">
-        <v>0.34285714285714286</v>
+        <v>0.72876984126984123</v>
       </c>
       <c r="H3">
-        <v>0.25714285714285712</v>
+        <v>0.66646825396825393</v>
       </c>
       <c r="I3">
-        <v>0.2857142857142857</v>
+        <v>0.65119047619047621</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -12220,28 +13240,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.34285714285714286</v>
+        <v>0.72599206349206347</v>
       </c>
       <c r="C4">
-        <v>0.2</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="D4">
-        <v>0.22857142857142856</v>
+        <v>0.72142857142857142</v>
       </c>
       <c r="E4">
-        <v>0.25714285714285712</v>
+        <v>0.68849206349206349</v>
       </c>
       <c r="F4">
-        <v>0.31428571428571428</v>
+        <v>0.74206349206349209</v>
       </c>
       <c r="G4">
-        <v>0.31428571428571428</v>
+        <v>0.75496031746031744</v>
       </c>
       <c r="H4">
-        <v>0.34285714285714286</v>
+        <v>0.71567460317460319</v>
       </c>
       <c r="I4">
-        <v>0.34285714285714286</v>
+        <v>0.72559523809523807</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -12249,28 +13269,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.34285714285714286</v>
+        <v>0.7503968253968254</v>
       </c>
       <c r="C5">
-        <v>0.25714285714285712</v>
+        <v>0.71984126984126984</v>
       </c>
       <c r="D5">
-        <v>0.22857142857142856</v>
+        <v>0.72539682539682537</v>
       </c>
       <c r="E5">
-        <v>0.22857142857142856</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="F5">
-        <v>0.34285714285714286</v>
+        <v>0.73055555555555551</v>
       </c>
       <c r="G5">
-        <v>0.2857142857142857</v>
+        <v>0.731547619047619</v>
       </c>
       <c r="H5">
-        <v>0.2857142857142857</v>
+        <v>0.70892857142857146</v>
       </c>
       <c r="I5">
-        <v>0.2857142857142857</v>
+        <v>0.66130952380952379</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -12278,28 +13298,28 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.34285714285714286</v>
+        <v>0.74632278863590573</v>
       </c>
       <c r="C6">
-        <v>0.34285714285714286</v>
+        <v>0.79609107394720935</v>
       </c>
       <c r="D6">
-        <v>0.31428571428571428</v>
+        <v>0.78400161192826923</v>
       </c>
       <c r="E6">
-        <v>0.2857142857142857</v>
+        <v>0.6981664315937941</v>
       </c>
       <c r="F6">
-        <v>0.54285714285714282</v>
+        <v>0.80374773322587145</v>
       </c>
       <c r="G6">
-        <v>0.37142857142857144</v>
+        <v>0.78158371952448114</v>
       </c>
       <c r="H6">
-        <v>0.34285714285714286</v>
+        <v>0.74571831553495871</v>
       </c>
       <c r="I6">
-        <v>0.34285714285714286</v>
+        <v>0.69393511988716505</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -12307,28 +13327,28 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.37142857142857144</v>
+        <v>0.7243966741026161</v>
       </c>
       <c r="C7">
-        <v>0.2857142857142857</v>
+        <v>0.75238288379639018</v>
       </c>
       <c r="D7">
-        <v>0.2857142857142857</v>
+        <v>0.77306834313526673</v>
       </c>
       <c r="E7">
-        <v>0.22857142857142856</v>
+        <v>0.71608193064287162</v>
       </c>
       <c r="F7">
-        <v>0.48571428571428571</v>
+        <v>0.80429933076455085</v>
       </c>
       <c r="G7">
-        <v>0.4</v>
+        <v>0.79578178868383698</v>
       </c>
       <c r="H7">
-        <v>0.42857142857142855</v>
+        <v>0.73697018860271746</v>
       </c>
       <c r="I7">
-        <v>0.2857142857142857</v>
+        <v>0.71709592374771847</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
@@ -12336,28 +13356,28 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.34285714285714286</v>
+        <v>0.73452380952380958</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.80317460317460321</v>
       </c>
       <c r="D8">
-        <v>0.31428571428571428</v>
+        <v>0.80158730158730163</v>
       </c>
       <c r="E8">
-        <v>0.31428571428571428</v>
+        <v>0.71845238095238095</v>
       </c>
       <c r="F8">
-        <v>0.37142857142857144</v>
+        <v>0.75654761904761902</v>
       </c>
       <c r="G8">
-        <v>0.4</v>
+        <v>0.79623015873015868</v>
       </c>
       <c r="H8">
-        <v>0.34285714285714286</v>
+        <v>0.71071428571428574</v>
       </c>
       <c r="I8">
-        <v>0.34285714285714286</v>
+        <v>0.67519841269841274</v>
       </c>
     </row>
   </sheetData>
@@ -12368,11 +13388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE021BF5-91AB-4F27-A9BA-793C45A64266}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C0F044-93E0-4737-9DC1-3A1BC95E8B61}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12405,6 +13425,253 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="C2">
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="D2">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="E2">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="F2">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="G2">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="H2">
+        <v>0.2</v>
+      </c>
+      <c r="I2">
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C3">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="D3">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="E3">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="F3">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G3">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="H3">
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="I3">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="E4">
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="F4">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="G4">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="H4">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="I4">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="C5">
+        <v>0.25714285714285712</v>
+      </c>
+      <c r="D5">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="E5">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="F5">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="G5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H5">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I5">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="C6">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="D6">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="E6">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F6">
+        <v>0.54285714285714282</v>
+      </c>
+      <c r="G6">
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="H6">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="I6">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="C7">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D7">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E7">
+        <v>0.22857142857142856</v>
+      </c>
+      <c r="F7">
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="I7">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="C8">
+        <v>0.4</v>
+      </c>
+      <c r="D8">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="E8">
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="F8">
+        <v>0.37142857142857144</v>
+      </c>
+      <c r="G8">
+        <v>0.4</v>
+      </c>
+      <c r="H8">
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="I8">
+        <v>0.34285714285714286</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE021BF5-91AB-4F27-A9BA-793C45A64266}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>8</v>
       </c>
